--- a/data/import_template_updated_13.10.25.xlsx
+++ b/data/import_template_updated_13.10.25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\group8\Documents\DEV\ai-e-nis\mil-tracker\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atana/Dev/electron/mil-tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CA0B6-0FBE-4DE4-8C66-3EAB66462A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC61553D-B626-0B44-93E6-791CA60AD974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="780" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="38640" windowHeight="19440" tabRatio="780" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1787,9 +1787,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1797,57 +1797,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1855,27 +1855,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1883,12 +1883,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1896,72 +1896,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1969,22 +1969,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1992,22 +1992,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2015,32 +2015,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2048,17 +2048,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2066,17 +2066,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>57</v>
       </c>
@@ -2098,31 +2098,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>259</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -2207,14 +2207,14 @@
         <v>34</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N65" si="0">TRIM(A2&amp;" "&amp;B2)</f>
+        <f>TRIM(A2&amp;" "&amp;B2)</f>
         <v>TRName1 TRSurname1</v>
       </c>
       <c r="O2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>279</v>
       </c>
@@ -2249,14 +2249,14 @@
         <v>50</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N2:N65" si="0">TRIM(A3&amp;" "&amp;B3)</f>
         <v>TRName2 TRSurname2</v>
       </c>
       <c r="O3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>280</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>281</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>282</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>285</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>292</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>293</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>295</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>296</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>297</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>299</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>300</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>302</v>
       </c>
@@ -3159,5851 +3159,5851 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N66" t="str">
         <f t="shared" ref="N66:N129" si="1">TRIM(A66&amp;" "&amp;B66)</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N67" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N84" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N89" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N90" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N97" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N99" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N103" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N112" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N113" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N117" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N119" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N120" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N121" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N123" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N124" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N126" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N127" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N128" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N129" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N130" t="str">
         <f t="shared" ref="N130:N193" si="2">TRIM(A130&amp;" "&amp;B130)</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N131" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N132" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N133" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N134" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N135" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N136" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N137" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N138" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N139" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N141" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N142" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N143" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N144" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N145" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N146" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N147" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N148" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N152" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N155" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N156" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N157" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N158" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N159" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N160" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N161" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N162" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N163" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N164" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N165" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N167" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N168" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N169" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N170" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N172" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N173" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N174" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N175" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N176" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N177" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N178" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N179" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N180" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N181" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N182" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N183" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N184" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N185" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N186" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N187" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N188" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N189" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N190" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N191" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N192" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N193" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N194" t="str">
         <f t="shared" ref="N194:N257" si="3">TRIM(A194&amp;" "&amp;B194)</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N195" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N196" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N197" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N198" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N199" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N200" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N201" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N202" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N203" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N204" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N205" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N206" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N207" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N208" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N209" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N210" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N211" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N212" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N213" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N214" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N215" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N216" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N217" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N218" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N219" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N220" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N221" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N222" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N223" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N227" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N228" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N230" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N231" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N232" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N233" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N234" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N235" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N236" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N237" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N238" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N239" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N240" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N241" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N242" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N243" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N244" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N245" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N246" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N247" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N248" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N249" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N250" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N251" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N252" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N253" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N254" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N255" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N256" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N257" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N258" t="str">
         <f t="shared" ref="N258:N321" si="4">TRIM(A258&amp;" "&amp;B258)</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N259" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N260" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N261" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N262" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N263" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N264" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N265" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N266" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N267" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N268" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N269" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N270" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N271" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N272" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N273" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N274" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N275" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N276" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N277" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N278" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N279" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N280" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N281" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N282" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N283" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N284" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N285" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N286" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N287" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N288" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N289" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N290" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N291" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N292" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N293" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N294" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N295" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N296" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N297" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N298" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N299" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N300" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N301" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N302" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N303" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N304" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N305" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N306" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N307" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N308" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N309" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N310" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N311" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N312" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N313" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N314" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N315" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N316" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N317" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N318" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N319" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N320" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N321" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N322" t="str">
         <f t="shared" ref="N322:N385" si="5">TRIM(A322&amp;" "&amp;B322)</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N323" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N324" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N325" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N326" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N327" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N328" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N329" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N330" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N331" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N332" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N333" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N334" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N335" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N336" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N337" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N338" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N339" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N340" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N341" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N342" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N343" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N344" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N345" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N346" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N347" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N348" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N349" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N350" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N351" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N352" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N353" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N354" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N355" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N356" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N357" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N358" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N359" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N360" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N361" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N362" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N363" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N364" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N365" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N366" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N367" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N368" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N369" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N370" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N371" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N372" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N373" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N374" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N375" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N376" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N377" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N378" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N379" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N380" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N381" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N382" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N383" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N384" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N385" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N386" t="str">
         <f t="shared" ref="N386:N1049" si="6">TRIM(A386&amp;" "&amp;B386)</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N387" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N388" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N389" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N390" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N391" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N392" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N393" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N394" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N395" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N396" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N397" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N398" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N399" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N400" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N401" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1002" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1002" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1002" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1003" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1003" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1003" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1004" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1004" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1004" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1005" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1005" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1005" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1006" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1006" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1006" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1007" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1007" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1007" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1008" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1008" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1008" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1009" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1009" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1009" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1010" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1010" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1010" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1011" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1011" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1011" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1012" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1012" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1012" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1013" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1013" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1013" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1014" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1014" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1014" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1015" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1015" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1015" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1016" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1016" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1016" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1017" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1017" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1017" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1018" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1018" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1018" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1019" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1019" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1019" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1020" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1020" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1020" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1021" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1021" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1021" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1022" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1022" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1022" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1023" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1023" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1023" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1024" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1024" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1024" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1025" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1025" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1025" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1026" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1026" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1026" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1027" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1027" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1027" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1028" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1028" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1028" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1029" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1029" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1029" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1030" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1030" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1030" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1031" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1031" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1031" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1032" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1032" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1032" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1033" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1033" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1033" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1034" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1034" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1034" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1035" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1035" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1035" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1036" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1036" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1036" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1037" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1037" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1037" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1038" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1038" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1038" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1039" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1039" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1039" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1040" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1040" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1040" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1041" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1041" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1041" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1042" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1042" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1042" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1043" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1043" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1043" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1044" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1044" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1044" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1045" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1045" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1045" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1046" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1046" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1046" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1047" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1047" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1047" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1048" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1048" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1048" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1049" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1049" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1049" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="1050" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1050" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1050" t="str">
         <f t="shared" ref="N1050:N1113" si="7">TRIM(A1050&amp;" "&amp;B1050)</f>
         <v/>
       </c>
     </row>
-    <row r="1051" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1051" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1051" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1052" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1052" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1052" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1053" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1053" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1053" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1054" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1054" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1054" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1055" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1055" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1055" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1056" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1056" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1056" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1057" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1057" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1057" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1058" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1058" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1058" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1059" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1059" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1059" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1060" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1060" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1060" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1061" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1061" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1061" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1062" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1062" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1062" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1063" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1063" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1063" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1064" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1064" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1064" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1065" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1065" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1065" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1066" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1066" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1066" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1067" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1067" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1067" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1068" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1068" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1068" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1069" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1069" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1069" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1070" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1070" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1070" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1071" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1071" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1071" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1072" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1072" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1072" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1073" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1073" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1073" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1074" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1074" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1074" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1075" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1075" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1075" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1076" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1076" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1076" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1077" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1077" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1077" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1078" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1078" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1078" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1079" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1079" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1079" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1080" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1080" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1080" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1081" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1081" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1081" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1082" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1082" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1082" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1083" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1083" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1083" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1084" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1084" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1084" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1085" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1085" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1085" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1086" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1086" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1086" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1087" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1087" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1087" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1088" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1088" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1088" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1089" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1089" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1089" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1090" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1090" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1090" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1091" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1091" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1091" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1092" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1092" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1092" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1093" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1093" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1093" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1094" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1094" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1094" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1095" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1095" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1095" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1096" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1096" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1096" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1097" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1097" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1097" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1098" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1098" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1098" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1099" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1099" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1099" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1100" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1100" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1100" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1101" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1101" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1101" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1102" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1102" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1102" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1103" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1103" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1103" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1104" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1104" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1104" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1105" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1105" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1105" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1106" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1106" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1106" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1107" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1107" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1107" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1108" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1108" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1109" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1109" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1110" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1110" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1110" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1111" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1111" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1111" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1112" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1112" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1112" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1113" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1113" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1113" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="1114" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1114" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1114" t="str">
         <f t="shared" ref="N1114:N1177" si="8">TRIM(A1114&amp;" "&amp;B1114)</f>
         <v/>
       </c>
     </row>
-    <row r="1115" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1115" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1115" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1116" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1116" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1116" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1117" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1117" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1117" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1118" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1118" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1118" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1119" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1119" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1119" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1120" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1120" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1120" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1121" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1121" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1121" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1122" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1122" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1122" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1123" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1123" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1123" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1124" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1124" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1124" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1125" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1125" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1126" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1126" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1126" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1127" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1127" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1127" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1128" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1128" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1128" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1129" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1129" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1129" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1130" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1130" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1130" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1131" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1131" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1131" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1132" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1132" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1132" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1133" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1133" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1133" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1134" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1134" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1134" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1135" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1135" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1135" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1136" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1136" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1136" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1137" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1137" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1137" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1138" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1138" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1138" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1139" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1139" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1139" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1140" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1140" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1140" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1141" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1141" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1141" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1142" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1142" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1142" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1143" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1143" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1143" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1144" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1144" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1144" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1145" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1145" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1145" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1146" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1146" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1146" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1147" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1147" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1147" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1148" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1148" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1148" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1149" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1149" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1149" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1150" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1150" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1150" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1151" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1151" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1151" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1152" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1152" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1152" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1153" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1153" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1153" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1154" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1154" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1154" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1155" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1155" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1155" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1156" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1156" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1156" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1157" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1157" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1157" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1158" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1158" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1159" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1159" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1160" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1160" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1161" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1161" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1162" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1162" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1162" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1163" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1163" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1163" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1164" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1164" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1164" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1165" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1165" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1165" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1166" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1166" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1166" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1167" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1167" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1167" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1168" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1168" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1168" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1169" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1169" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1169" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1170" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1170" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1170" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1171" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1171" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1172" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1172" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1172" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1173" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1173" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1173" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1174" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1174" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1174" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1175" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1175" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1175" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1176" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1176" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1176" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1177" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1177" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1177" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="1178" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1178" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1178" t="str">
         <f t="shared" ref="N1178:N1241" si="9">TRIM(A1178&amp;" "&amp;B1178)</f>
         <v/>
       </c>
     </row>
-    <row r="1179" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1179" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1179" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1180" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1180" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1180" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1181" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1181" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1181" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1182" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1182" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1182" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1183" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1183" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1183" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1184" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1184" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1184" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1185" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1185" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1185" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1186" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1186" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1186" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1187" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1187" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1187" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1188" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1188" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1188" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1189" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1189" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1189" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1190" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1190" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1190" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1191" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1191" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1191" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1192" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1192" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1192" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1193" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1193" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1193" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1194" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1194" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1194" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1195" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1195" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1195" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1196" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1196" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1196" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1197" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1197" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1197" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1198" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1198" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1198" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1199" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1199" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1199" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1200" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1200" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1200" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1201" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1201" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1201" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1202" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1202" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1202" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1203" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1203" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1203" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1204" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1204" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1204" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1205" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1205" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1205" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1206" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1206" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1206" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1207" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1207" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1207" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1208" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1208" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1208" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1209" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1209" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1209" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1210" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1210" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1210" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1211" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1211" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1211" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1212" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1212" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1212" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1213" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1213" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1213" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1214" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1214" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1214" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1215" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1215" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1215" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1216" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1216" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1216" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1217" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1217" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1217" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1218" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1218" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1218" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1219" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1219" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1219" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1220" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1220" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1220" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1221" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1221" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1221" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1222" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1222" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1222" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1223" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1223" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1223" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1224" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1224" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1224" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1225" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1225" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1225" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1226" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1226" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1226" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1227" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1227" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1227" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1228" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1228" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1228" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1229" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1229" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1229" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1230" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1230" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1230" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1231" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1231" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1231" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1232" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1232" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1232" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1233" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1233" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1233" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1234" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1234" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1234" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1235" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1235" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1235" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1236" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1236" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1236" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1237" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1237" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1237" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1238" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1238" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1238" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1239" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1239" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1239" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1240" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1240" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1240" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1241" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1241" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1241" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="1242" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1242" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1242" t="str">
         <f t="shared" ref="N1242:N1305" si="10">TRIM(A1242&amp;" "&amp;B1242)</f>
         <v/>
       </c>
     </row>
-    <row r="1243" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1243" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1243" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1244" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1244" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1244" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1245" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1245" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1245" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1246" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1246" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1246" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1247" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1247" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1247" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1248" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1248" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1248" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1249" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1249" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1249" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1250" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1250" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1250" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1251" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1251" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1251" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1252" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1252" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1252" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1253" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1253" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1253" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1254" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1254" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1254" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1255" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1255" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1255" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1256" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1256" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1256" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1257" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1257" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1257" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1258" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1258" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1258" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1259" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1259" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1259" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1260" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1260" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1260" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1261" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1261" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1261" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1262" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1262" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1262" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1263" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1263" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1263" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1264" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1264" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1264" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1265" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1265" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1265" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1266" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1266" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1266" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1267" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1267" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1267" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1268" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1268" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1268" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1269" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1269" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1269" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1270" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1270" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1270" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1271" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1271" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1271" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1272" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1272" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1272" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1273" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1273" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1273" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1274" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1274" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1274" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1275" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1275" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1275" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1276" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1276" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1276" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1277" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1277" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1277" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1278" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1278" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1278" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1279" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1279" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1279" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1280" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1280" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1280" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1281" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1281" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1281" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1282" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1282" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1282" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1283" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1283" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1283" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1284" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1284" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1284" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1285" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1285" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1285" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1286" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1286" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1286" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1287" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1287" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1287" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1288" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1288" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1288" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1289" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1289" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1289" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1290" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1290" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1290" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1291" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1291" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1291" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1292" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1292" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1292" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1293" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1293" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1293" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1294" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1294" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1294" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1295" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1295" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1295" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1296" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1296" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1296" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1297" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1297" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1297" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1298" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1298" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1298" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1299" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1299" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1299" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1300" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1300" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1300" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1301" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1301" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1301" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1302" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1302" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1302" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1303" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1303" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1303" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1304" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1304" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1304" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1305" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1305" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1305" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="1306" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1306" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1306" t="str">
         <f t="shared" ref="N1306:N1369" si="11">TRIM(A1306&amp;" "&amp;B1306)</f>
         <v/>
       </c>
     </row>
-    <row r="1307" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1307" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1307" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1308" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1308" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1308" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1309" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1309" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1309" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1310" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1310" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1310" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1311" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1311" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1311" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1312" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1312" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1312" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1313" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1313" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1313" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1314" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1314" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1314" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1315" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1315" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1315" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1316" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1316" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1316" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1317" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1317" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1317" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1318" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1318" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1318" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1319" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1319" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1319" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1320" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1320" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1320" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1321" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1321" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1321" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1322" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1322" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1322" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1323" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1323" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1323" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1324" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1324" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1324" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1325" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1325" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1325" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1326" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1326" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1326" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1327" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1327" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1327" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1328" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1328" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1328" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1329" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1329" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1329" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1330" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1330" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1330" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1331" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1331" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1331" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1332" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1332" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1332" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1333" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1333" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1333" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1334" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1334" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1334" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1335" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1335" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1335" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1336" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1336" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1336" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1337" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1337" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1337" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1338" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1338" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1338" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1339" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1339" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1339" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1340" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1340" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1340" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1341" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1341" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1341" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1342" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1342" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1342" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1343" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1343" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1343" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1344" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1344" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1344" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1345" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1345" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1345" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1346" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1346" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1346" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1347" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1347" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1347" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1348" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1348" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1348" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1349" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1349" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1349" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1350" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1350" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1350" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1351" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1351" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1351" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1352" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1352" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1352" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1353" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1353" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1353" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1354" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1354" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1354" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1355" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1355" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1355" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1356" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1356" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1356" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1357" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1357" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1357" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1358" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1358" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1358" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1359" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1359" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1359" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1360" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1360" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1360" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1361" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1361" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1361" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1362" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1362" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1362" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1363" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1363" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1363" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1364" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1364" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1364" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1365" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1365" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1365" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1366" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1366" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1366" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1367" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1367" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1367" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1368" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1368" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1368" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1369" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1369" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1369" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1370" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1370" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1370" t="str">
         <f t="shared" ref="N1370:N1433" si="12">TRIM(A1370&amp;" "&amp;B1370)</f>
         <v/>
       </c>
     </row>
-    <row r="1371" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1371" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1371" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1372" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1372" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1372" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1373" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1373" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1373" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1374" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1374" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1374" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1375" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1375" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1375" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1376" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1376" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1376" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1377" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1377" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1377" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1378" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1378" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1378" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1379" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1379" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1379" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1380" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1380" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1380" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1381" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1381" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1381" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1382" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1382" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1382" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1383" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1383" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1383" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1384" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1384" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1384" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1385" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1385" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1385" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1386" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1386" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1386" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1387" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1387" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1387" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1388" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1388" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1388" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1389" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1389" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1389" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1390" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1390" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1390" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1391" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1391" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1391" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1392" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1392" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1392" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1393" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1393" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1393" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1394" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1394" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1394" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1395" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1395" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1395" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1396" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1396" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1396" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1397" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1397" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1397" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1398" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1398" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1398" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1399" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1399" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1399" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1400" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1400" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1400" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1401" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1401" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1401" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1402" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1402" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1402" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1403" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1403" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1403" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1404" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1404" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1404" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1405" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1405" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1405" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1406" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1406" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1406" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1407" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1407" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1407" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1408" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1408" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1408" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1409" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1409" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1409" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1410" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1410" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1410" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1411" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1411" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1411" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1412" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1412" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1412" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1413" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1413" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1413" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1414" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1414" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1414" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1415" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1415" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1415" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1416" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1416" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1416" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1417" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1417" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1417" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1418" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1418" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1418" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1419" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1419" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1419" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1420" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1420" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1420" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1421" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1421" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1421" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1422" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1422" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1422" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1423" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1423" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1423" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1424" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1424" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1424" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1425" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1425" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1425" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1426" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1426" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1426" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1427" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1427" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1427" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1428" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1428" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1428" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1429" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1429" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1429" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1430" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1430" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1430" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1431" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1431" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1431" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1432" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1432" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1432" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1433" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1433" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1433" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="1434" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1434" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1434" t="str">
         <f t="shared" ref="N1434:N1497" si="13">TRIM(A1434&amp;" "&amp;B1434)</f>
         <v/>
       </c>
     </row>
-    <row r="1435" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1435" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1435" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1436" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1436" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1436" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1437" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1437" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1437" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1438" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1438" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1438" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1439" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1439" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1439" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1440" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1440" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1440" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1441" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1441" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1441" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1442" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1442" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1442" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1443" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1443" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1443" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1444" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1444" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1444" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1445" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1445" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1445" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1446" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1446" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1446" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1447" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1447" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1447" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1448" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1448" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1448" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1449" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1449" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1449" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1450" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1450" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1450" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1451" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1451" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1451" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1452" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1452" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1452" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1453" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1453" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1453" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1454" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1454" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1454" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1455" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1455" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1455" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1456" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1456" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1456" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1457" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1457" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1457" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1458" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1458" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1458" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1459" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1459" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1459" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1460" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1460" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1460" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1461" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1461" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1461" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1462" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1462" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1462" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1463" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1463" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1463" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1464" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1464" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1464" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1465" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1465" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1465" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1466" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1466" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1466" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1467" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1467" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1467" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1468" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1468" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1468" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1469" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1469" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1469" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1470" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1470" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1470" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1471" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1471" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1471" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1472" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1472" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1472" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1473" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1473" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1473" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1474" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1474" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1474" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1475" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1475" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1475" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1476" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1476" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1476" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1477" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1477" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1477" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1478" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1478" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1478" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1479" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1479" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1479" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1480" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1480" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1480" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1481" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1481" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1481" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1482" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1482" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1482" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1483" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1483" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1483" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1484" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1484" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1484" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1485" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1485" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1485" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1486" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1486" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1486" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1487" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1487" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1487" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1488" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1488" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1488" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1489" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1489" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1489" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1490" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1490" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1490" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1491" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1491" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1491" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1492" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1492" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1492" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1493" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1493" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1493" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1494" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1494" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1494" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1495" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1495" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1495" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1496" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1496" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1496" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1497" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1497" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1497" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="1498" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1498" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1498" t="str">
         <f t="shared" ref="N1498:N1561" si="14">TRIM(A1498&amp;" "&amp;B1498)</f>
         <v/>
       </c>
     </row>
-    <row r="1499" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1499" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1499" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1500" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1500" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1500" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1501" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1501" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1501" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1502" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1502" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1502" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1503" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1503" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1503" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1504" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1504" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1504" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1505" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1505" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1505" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1506" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1506" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1506" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1507" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1507" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1507" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1508" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1508" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1508" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1509" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1509" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1509" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1510" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1510" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1510" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1511" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1511" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1511" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1512" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1512" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1512" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1513" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1513" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1513" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1514" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1514" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1514" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1515" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1515" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1515" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1516" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1516" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1516" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1517" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1517" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1517" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1518" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1518" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1518" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1519" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1519" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1519" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1520" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1520" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1520" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1521" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1521" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1521" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1522" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1522" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1522" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1523" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1523" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1523" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1524" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1524" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1524" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1525" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1525" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1525" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1526" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1526" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1526" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1527" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1527" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1527" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1528" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1528" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1528" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1529" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1529" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1529" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1530" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1530" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1530" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1531" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1531" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1531" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1532" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1532" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1532" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1533" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1533" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1533" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1534" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1534" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1534" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1535" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1535" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1535" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1536" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1536" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1536" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1537" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1537" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1537" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1538" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1538" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1538" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1539" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1539" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1539" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1540" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1540" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1540" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1541" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1541" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1541" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1542" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1542" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1542" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1543" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1543" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1543" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1544" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1544" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1544" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1545" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1545" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1545" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1546" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1546" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1546" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1547" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1547" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1547" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1548" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1548" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1548" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1549" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1549" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1549" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1550" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1550" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1550" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1551" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1551" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1551" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1552" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1552" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1552" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1553" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1553" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1553" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1554" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1554" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1554" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1555" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1555" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1555" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1556" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1556" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1556" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1557" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1557" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1557" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1558" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1558" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1558" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1559" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1559" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1559" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1560" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1560" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1560" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1561" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1561" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1561" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="1562" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1562" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1562" t="str">
         <f t="shared" ref="N1562:N1601" si="15">TRIM(A1562&amp;" "&amp;B1562)</f>
         <v/>
       </c>
     </row>
-    <row r="1563" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1563" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1563" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1564" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1564" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1564" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1565" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1565" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1565" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1566" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1566" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1566" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1567" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1567" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1567" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1568" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1568" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1568" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1569" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1569" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1569" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1570" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1570" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1570" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1571" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1571" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1571" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1572" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1572" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1572" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1573" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1573" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1573" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1574" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1574" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1574" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1575" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1575" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1575" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1576" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1576" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1576" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1577" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1577" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1577" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1578" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1578" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1578" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1579" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1579" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1579" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1580" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1580" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1580" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1581" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1581" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1581" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1582" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1582" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1582" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1583" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1583" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1583" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1584" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1584" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1584" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1585" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1585" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1585" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1586" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1586" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1586" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1587" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1587" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1587" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1588" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1588" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1588" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1589" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1589" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1589" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1590" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1590" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1590" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1591" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1591" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1591" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1592" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1592" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1592" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1593" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1593" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1593" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1594" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1594" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1594" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1595" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1595" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1595" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1596" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1596" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1596" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1597" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1597" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1597" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1598" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1598" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1598" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1599" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1599" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1599" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1600" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1600" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1600" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1601" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1601" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N1601" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -9066,15 +9066,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -9145,24 +9145,24 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>Personnel!$N$2</f>
         <v>TRName1 TRSurname1</v>
@@ -9227,7 +9227,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>Personnel!$N$3</f>
         <v>TRName2 TRSurname2</v>
@@ -9284,16 +9284,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9337,15 +9337,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
@@ -9389,17 +9389,17 @@
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -9478,15 +9478,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>277</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -9559,16 +9559,16 @@
       <selection activeCell="A793" sqref="A793:XFD793"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>277</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>TRName1 TRSurname1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -9647,9 +9647,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -9756,9 +9756,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>226</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>228</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>235</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>235</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>241</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>241</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>241</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -10035,14 +10035,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -10088,15 +10088,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -10184,14 +10184,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -10344,16 +10344,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>337</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>338</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>339</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>340</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>341</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
@@ -10670,14 +10670,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -10720,15 +10720,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>353</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>356</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>358</v>
       </c>
@@ -10807,16 +10807,16 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -10877,19 +10877,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>133</v>
       </c>
